--- a/20180126_SmartCut/Meeting/20190328 Meeting/20190327 164355 SmartCut for ID and Funtion v2.xlsx
+++ b/20180126_SmartCut/Meeting/20190328 Meeting/20190327 164355 SmartCut for ID and Funtion v2.xlsx
@@ -17,7 +17,7 @@
     <sheet name="傳統斷筋" sheetId="3" r:id="rId3"/>
     <sheet name="etabs_design" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1619,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH1751"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,7 +1763,7 @@
         <v>118</v>
       </c>
       <c r="AH2" s="6">
-        <f>SUMIF(F:F,AG2&amp;" 第一排",W:W)/SUMIF(F:F,AG2&amp;" 第一排",X:X)</f>
+        <f>SUMIF($F:$F,AG2&amp;" 第一排",W:W)/SUMIF($F:$F,AG2&amp;" 第一排",X:X)</f>
         <v>0.90876603291708502</v>
       </c>
     </row>
@@ -1776,7 +1776,7 @@
         <v>120</v>
       </c>
       <c r="AH3" s="6">
-        <f>SUMIF(F:F,AG3&amp;" 第一排",W:W)/SUMIF(F:F,AG3&amp;" 第一排",X:X)</f>
+        <f>SUMIF($F:$F,AG3&amp;" 第一排",W:W)/SUMIF($F:$F,AG3&amp;" 第一排",X:X)</f>
         <v>0.97732736698268396</v>
       </c>
     </row>
@@ -1851,7 +1851,7 @@
         <v>25182.990718799821</v>
       </c>
       <c r="Y4" s="4" t="str">
-        <f>IF(W4,RIGHT(G4,LEN(G4)-FIND("-",G4)),"")</f>
+        <f>IF(W4,RIGHT($G4,LEN($G4)-FIND("-",$G4)),"")</f>
         <v>#8</v>
       </c>
       <c r="Z4" s="5">
@@ -1880,7 +1880,7 @@
         <v>24</v>
       </c>
       <c r="Y5" s="4" t="str">
-        <f t="shared" ref="Y5:Y51" si="0">IF(W5,RIGHT(G5,LEN(G5)-FIND("-",G5)),"")</f>
+        <f t="shared" ref="Y5:Y51" si="0">IF(W5,RIGHT($G5,LEN($G5)-FIND("-",$G5)),"")</f>
         <v/>
       </c>
       <c r="Z5" s="5" t="str">
